--- a/documentation-generator/vocab_csv/rules.xlsx
+++ b/documentation-generator/vocab_csv/rules.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
   <si>
     <t>Term</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Label</t>
   </si>
   <si>
-    <t>Description</t>
+    <t>Definition</t>
   </si>
   <si>
     <t>ParentTerm</t>
@@ -38,7 +38,7 @@
     <t>Relation</t>
   </si>
   <si>
-    <t>Comment</t>
+    <t>Usage</t>
   </si>
   <si>
     <t>Source</t>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>dpv:Rule</t>
-  </si>
-  <si>
-    <t>sc</t>
   </si>
   <si>
     <t>Prohibition</t>
@@ -775,11 +772,9 @@
       <c r="C3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
@@ -817,19 +812,17 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -867,19 +860,17 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -3642,13 +3633,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -3680,22 +3671,22 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="D2" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
@@ -3728,22 +3719,22 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>41</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -3776,22 +3767,22 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="D4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>45</v>
-      </c>
       <c r="F4" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -3824,22 +3815,22 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>49</v>
-      </c>
       <c r="F5" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
